--- a/data/CSV/Divorce.xlsx
+++ b/data/CSV/Divorce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\Desktop\University\1st Year\Mathematics\Modules\Introduction To Data Science\Project\IDSproject\data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E335FBC-1817-48D9-949B-45039A9CDBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFF0F0C-9CD4-45B7-BF0A-B2317BC2D727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D37EEC0-D2E1-4579-94E8-E648F8A37120}"/>
+    <workbookView xWindow="12870" yWindow="510" windowWidth="21600" windowHeight="11295" xr2:uid="{8D37EEC0-D2E1-4579-94E8-E648F8A37120}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 8" sheetId="1" r:id="rId1"/>
@@ -1586,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD171BE-4B95-48D3-8DC5-DF9BED6901C5}">
-  <dimension ref="A1:H343"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1597,75 +1597,63 @@
     <col min="1" max="16384" width="31.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="6" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1673,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1669,7 @@
         <v>9.2492587918094795</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1677,7 @@
         <v>8.9551283646874396</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1697,7 +1685,7 @@
         <v>9.66776785289556</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
